--- a/biology/Zoologie/Erythromma_najas/Erythromma_najas.xlsx
+++ b/biology/Zoologie/Erythromma_najas/Erythromma_najas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythromma najas, la naïade aux yeux rouges, est une espèce d'insectes odonates zygoptères (ou demoiselles) de la famille des Coenagrionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, depuis le Midi de la France, l'Angleterre jusqu'au Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythromma viridulum, la « naïade au corps vert » : les mâles possèdent aussi les yeux rouges. Cette espèce est plus brillante, plus fine et plus fragile, elle est en expansion vers le nord.
 </t>
@@ -573,12 +589,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Erythromma najas (Hansemann, 1823)[1].
-L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion najas Hansemann, 1823[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : agrion aux yeux rouges[1], naïade aux yeux rouges[1],[2],[3].
-Erythromma najas a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Erythromma najas (Hansemann, 1823).
+L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion najas Hansemann, 1823.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : agrion aux yeux rouges, naïade aux yeux rouges.
+Erythromma najas a pour synonymes :
 Agrion analis Vander Linden, 1825
 Agrion chloridion Charpentier, 1825
 Agrion najas Hansemann, 1823
